--- a/agent_evaluation_prompts.xlsx
+++ b/agent_evaluation_prompts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gal\Documents\programming\Wonderful-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0EA944-8468-4083-A6FB-97BA33753AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6944DF0D-9392-4A8C-A716-616C89C980FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>אני חנה ורוצה לקנות אטורווסטאטין</t>
   </si>
   <si>
-    <t>excpected tools</t>
-  </si>
-  <si>
     <t>get_medicine_by_name</t>
   </si>
   <si>
@@ -132,10 +129,13 @@
     <t>purchase_medicine</t>
   </si>
   <si>
-    <t>Answer</t>
-  </si>
-  <si>
     <t>Tools_Called</t>
+  </si>
+  <si>
+    <t>Expected_Tools</t>
+  </si>
+  <si>
+    <t>Agent_Response</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,347 +496,348 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/agent_evaluation_prompts.xlsx
+++ b/agent_evaluation_prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gal\Documents\programming\Wonderful-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6944DF0D-9392-4A8C-A716-616C89C980FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D57979-AE32-4469-9FEE-EE0C19163837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>Prompt_ID</t>
   </si>
@@ -33,33 +33,12 @@
     <t>Is Advil available in your pharmacy?</t>
   </si>
   <si>
-    <t>Do you sell Amoxicillin? Is it prescription-only?</t>
-  </si>
-  <si>
-    <t>What is the stock level of Akamol?</t>
-  </si>
-  <si>
-    <t>Is Zyrtec currently in stock?</t>
-  </si>
-  <si>
-    <t>Do you have Tylenol? How many units are left?</t>
-  </si>
-  <si>
     <t>Can you tell me if Atorvastatin is available?</t>
   </si>
   <si>
     <t>Do you sell Aspirin?</t>
   </si>
   <si>
-    <t>Is there a medicine called Nurofen in stock?</t>
-  </si>
-  <si>
-    <t>Do you have Penicillin available?</t>
-  </si>
-  <si>
-    <t>Is אדוויל (Advil) available?</t>
-  </si>
-  <si>
     <t>I’m Alice. Which prescriptions do I currently have?</t>
   </si>
   <si>
@@ -136,6 +115,84 @@
   </si>
   <si>
     <t>Agent_Response</t>
+  </si>
+  <si>
+    <t>Do you sell TelAviv? Is it prescription-only?</t>
+  </si>
+  <si>
+    <t>What is the stock level of Akamol and golag?</t>
+  </si>
+  <si>
+    <t>Do you Tylenol? How many units are left?</t>
+  </si>
+  <si>
+    <t>edge-case</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>Is Zyrtec currently in stock? Should it take it?</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>האם תוכל לתת לי מידע לגבי זמינות של אדויל?</t>
+  </si>
+  <si>
+    <t>האם יש לכם פנסילבניה?</t>
+  </si>
+  <si>
+    <t>תן לי מידע לגבי זמינות של אדוויל ואקמול</t>
+  </si>
+  <si>
+    <t>I’m hanuka. Can you list my prescription medicines?</t>
+  </si>
+  <si>
+    <t>I’m Jack. Do I have any medicine prescribed? Should I take them?</t>
+  </si>
+  <si>
+    <t>My name is Eve. Do I have a prescription for Propaganda?</t>
+  </si>
+  <si>
+    <t>אני דוד האם יש לי מרשמים?</t>
+  </si>
+  <si>
+    <t>אני דניאל,תפרוט לי את כל המרשמים שלי!</t>
+  </si>
+  <si>
+    <t>כמה מלאי יש מהמרשמים שלי? קוראים לי אליס.</t>
+  </si>
+  <si>
+    <t>אני איווי, יש לי אישור לקנות תרופות עם מרשם?</t>
+  </si>
+  <si>
+    <t>תן לי את המרשמים של חנה וחווה ביחד</t>
+  </si>
+  <si>
+    <t>I’m Alice and I want to 1000 Amoxicillin.</t>
+  </si>
+  <si>
+    <t>I’m Eve and I wnt to bu Atorvastatin.</t>
+  </si>
+  <si>
+    <t>I’m alice and I want to buy 3 Atorvastatin.</t>
+  </si>
+  <si>
+    <t>אני ג'ק ואני רוצה לקנות 100 אדוויל</t>
+  </si>
+  <si>
+    <t>אני גרייס ואני רוצה לקנות אקמול כדאי לי להשתמש בו?</t>
+  </si>
+  <si>
+    <t>אני פשד ואני רוצה לקנות אממוודוד</t>
+  </si>
+  <si>
+    <t>אני דניאל ואני רוצה לקנות אקמול 1</t>
+  </si>
+  <si>
+    <t>Test_type</t>
   </si>
 </sst>
 </file>
@@ -475,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,9 +543,10 @@
     <col min="2" max="2" width="47.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,16 +554,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -513,325 +574,412 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
         <v>34</v>
       </c>
     </row>
@@ -864,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -872,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -880,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -888,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -896,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -904,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -912,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -920,7 +1068,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -928,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -936,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -975,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -983,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -991,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -999,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1007,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1015,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1023,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1031,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1039,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
